--- a/Project_V/Assets/ExcelFiles/gamelevel.xlsx
+++ b/Project_V/Assets/ExcelFiles/gamelevel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC8A24D-AC83-4AE3-A760-2EAECB3ECE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C28098-A769-472D-BB84-677BDEB40720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="2640" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="5850" yWindow="1980" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="gamelevel" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>L_Move_Speed</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Telephone_Delay</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Day</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1060,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1079,36 +1071,30 @@
     <col min="9" max="9" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1122,40 +1108,51 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>30.5</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G2" s="2">
-        <v>-500</v>
-      </c>
-      <c r="H2" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1.5</v>
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>

--- a/Project_V/Assets/ExcelFiles/gamelevel.xlsx
+++ b/Project_V/Assets/ExcelFiles/gamelevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C28098-A769-472D-BB84-677BDEB40720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0437410A-AA6C-450A-8D74-5B32F120C402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="1980" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="gamelevel" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Day</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -47,6 +47,22 @@
   </si>
   <si>
     <t>Is_Invalid_Stamp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start_Story_Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>After_Story_Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Letter_Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -661,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,6 +692,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1052,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1069,9 +1088,10 @@
     <col min="7" max="7" width="16.75" customWidth="1"/>
     <col min="8" max="8" width="15.375" customWidth="1"/>
     <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,8 +1113,17 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1116,8 +1145,17 @@
       <c r="G2" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1139,20 +1177,29 @@
       <c r="G3" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>

--- a/Project_V/Assets/ExcelFiles/gamelevel.xlsx
+++ b/Project_V/Assets/ExcelFiles/gamelevel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0437410A-AA6C-450A-8D74-5B32F120C402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837BDAF1-3F9E-4D92-A2E6-30F2439181CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>Day</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -54,15 +54,26 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>After_Story_Id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Letter_Id</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Test</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_End</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_Begin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_Begin</t>
+  </si>
+  <si>
+    <t>End_Story_Id</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,12 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1071,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1117,10 +1122,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1145,14 +1150,14 @@
       <c r="G2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1163,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="b">
         <v>1</v>
@@ -1177,33 +1182,271 @@
       <c r="G3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>10</v>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Project_V/Assets/ExcelFiles/gamelevel.xlsx
+++ b/Project_V/Assets/ExcelFiles/gamelevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837BDAF1-3F9E-4D92-A2E6-30F2439181CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA77CC0-DAD8-4CD1-BD1A-E0D95246943C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="2055" yWindow="0" windowWidth="23235" windowHeight="15600" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="gamelevel" sheetId="1" r:id="rId1"/>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Project_V/Assets/ExcelFiles/gamelevel.xlsx
+++ b/Project_V/Assets/ExcelFiles/gamelevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA77CC0-DAD8-4CD1-BD1A-E0D95246943C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837BDAF1-3F9E-4D92-A2E6-30F2439181CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="0" windowWidth="23235" windowHeight="15600" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="gamelevel" sheetId="1" r:id="rId1"/>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Project_V/Assets/ExcelFiles/gamelevel.xlsx
+++ b/Project_V/Assets/ExcelFiles/gamelevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA77CC0-DAD8-4CD1-BD1A-E0D95246943C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863CCDA5-E4BE-4329-8205-D731410E5E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="0" windowWidth="23235" windowHeight="15600" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="gamelevel" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>Day</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -74,6 +74,14 @@
   </si>
   <si>
     <t>End_Story_Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goal</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨시켜 먹기</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -559,6 +567,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -688,7 +707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,6 +718,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1094,9 +1119,10 @@
     <col min="8" max="8" width="15.375" customWidth="1"/>
     <col min="9" max="9" width="17.125" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,8 +1153,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1159,8 +1188,11 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1192,7 +1224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1224,7 +1256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1256,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1288,7 +1320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1320,7 +1352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1352,7 +1384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1384,7 +1416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1416,7 +1448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
